--- a/export.xlsx
+++ b/export.xlsx
@@ -322,7 +322,7 @@
     <t xml:space="preserve">Józsa Noémi</t>
   </si>
   <si>
-    <t xml:space="preserve">Karikas Henrietta</t>
+    <t xml:space="preserve">Müller Henrietta</t>
   </si>
   <si>
     <t xml:space="preserve">Kocsis Barbara</t>
@@ -372,11 +372,12 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="YYYY\-MM\-DD\ HH:MM:SS"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -406,6 +407,13 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -415,12 +423,19 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -449,7 +464,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -463,6 +478,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -485,8 +504,8 @@
   </sheetPr>
   <dimension ref="A1:L87"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B69" activeCellId="0" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2518,11 +2537,11 @@
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="4" t="s">
         <v>100</v>
       </c>
       <c r="C75" s="2"/>
